--- a/biology/Médecine/Strychnine/Strychnine.xlsx
+++ b/biology/Médecine/Strychnine/Strychnine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La strychnine est un alcaloïde très toxique extrait de la noix vomique, graine de l'arbre Strychnos nux-vomica. À très faible concentration, comme beaucoup d'alcaloïdes, il est utilisé en pharmacie pour ses propriétés stimulantes. Il était autrefois utilisé dans la lutte contre les corbeaux et les petits rongeurs.
-En France, la strychnine est interdite depuis 1982 dans la médecine humaine, et retirée de la vente comme raticide depuis 1999[8],[9].
+En France, la strychnine est interdite depuis 1982 dans la médecine humaine, et retirée de la vente comme raticide depuis 1999,.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Propriétés physiques et chimiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux pharmaciens français, Pierre Joseph Pelletier et Joseph Caventou isolèrent la strychnine en 1818. La strychnine s'obtient en râpant la noix vomique dans l'alcool bouillant puis en distillant la liqueur obtenue.
 Les cristaux sont des prismes rhomboïdaux incolores, inodores, mais de forte saveur amère. Les solutions sont lévogyres. La structure chimique est complexe ; deux prix Nobel de chimie ont contribué à résoudre le problème : Sir Robert Robinson qui proposa la formule en 1946 et Robert Woodward qui réalisa la synthèse totale en 1954.
@@ -545,10 +559,12 @@
           <t>Effets sur l'être humain</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La strychnine est un stimulant du système nerveux central. De par son effet psychotrope elle procure à son utilisateur une sensation accrue du goût, de l'odorat et de la vue. À dose moyenne, elle augmente l'amplitude respiratoire.
-À dose létale, 0,2 mg·kg-1 pouvant suffire : spasmes musculaires au bout de 10 à 20 minutes en commençant par la tête et le cou, fortes douleurs, convulsions, arrêt cardiaque, puis la mort par asphyxie. Les meilleurs antidotes sont les barbituriques[10].</t>
+À dose létale, 0,2 mg·kg-1 pouvant suffire : spasmes musculaires au bout de 10 à 20 minutes en commençant par la tête et le cou, fortes douleurs, convulsions, arrêt cardiaque, puis la mort par asphyxie. Les meilleurs antidotes sont les barbituriques.</t>
         </is>
       </c>
     </row>
@@ -576,12 +592,14 @@
           <t>Cas de dopage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Thomas Hicks devint champion olympique du marathon en 1904, grâce à deux piqûres de strychnine[11].
-Dorando Pietri, aux JO de Londres en 1908, dopé à la strychnine lui aussi, s'effondra dans les derniers mètres alors qu'il menait le marathon. Les juges le portèrent jusqu'à l'arrivée. Il fut disqualifié pour « aide étrangère »[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Thomas Hicks devint champion olympique du marathon en 1904, grâce à deux piqûres de strychnine.
+Dorando Pietri, aux JO de Londres en 1908, dopé à la strychnine lui aussi, s'effondra dans les derniers mètres alors qu'il menait le marathon. Les juges le portèrent jusqu'à l'arrivée. Il fut disqualifié pour « aide étrangère ».
 L'haltérophile kirghiz Izzat Artykov, médaillé de bronze dans la catégorie des - 69 kg, est contrôlé positif à la strychnine et est exclu des Jeux de Rio 2016.
-À la fin de la Seconde Guerre mondiale, Adolf Hitler, alors âgé de 56 ans, recevait jusqu'à six piqûres de strychnine par jour pour tenir pendant les bombardements de Berlin par les Soviétiques[13].</t>
+À la fin de la Seconde Guerre mondiale, Adolf Hitler, alors âgé de 56 ans, recevait jusqu'à six piqûres de strychnine par jour pour tenir pendant les bombardements de Berlin par les Soviétiques.</t>
         </is>
       </c>
     </row>
@@ -609,13 +627,15 @@
           <t>Suicides et assassinats à la strychnine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'empoisonneur de Lambeth, assassin à la strychnine de quatre prostituées, fut pendu en 1892.
 Le guitariste de blues Robert Johnson aurait été empoisonné à la strychnine à l'aide d'une bouteille de whisky offerte par le tenancier d'un bar, jaloux de le voir tourner autour de sa femme en 1938.
 Le bandit sicilien Gaspare Pisciotta (1924-1954) fut empoisonné en prison par la mafia ; de la strychnine fut versée dans son café.
 Le neurochirurgien réputé Thierry de Martel se suicide le 14 juin 1940 en absorbant de la strychnine alors que les troupes allemandes entrent à Paris. Désespéré, il écrit avant sa mort : « Je vous ai promis de ne pas quitter Paris. Ne vous ai pas dit si j'y resterai mort ou vivant… Adieu. Martel. »
-En février 2017, dans la commune de Trois-Ponts, en Belgique, Nancy Krings est condamnée à 20 ans de prison pour l’assassinat de son mari, Bruno Lieber, par empoisonnement à la strychnine[14].</t>
+En février 2017, dans la commune de Trois-Ponts, en Belgique, Nancy Krings est condamnée à 20 ans de prison pour l’assassinat de son mari, Bruno Lieber, par empoisonnement à la strychnine.</t>
         </is>
       </c>
     </row>
@@ -645,8 +665,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dans les romans policiers
-Par Agatha Christie :
+          <t>Dans les romans policiers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Par Agatha Christie :
 L'Arrivée de Mr Quinn (recueil Le Mystérieux Mr Quinn)
 Comment poussent vos fleurs ? (recueil Le Bal de la victoire)
 Mort sur le Nil (nouvelle) (recueil Mr Parker Pyne)
@@ -660,7 +685,7 @@
 Par Thomas G. Waddell et Thomas R. Rybolt : L'affaire des cristaux jaunes
 Par Luke Rhinehart : L'Homme-dé
 Par Sir Arthur Conan Doyle : Le Signe des quatre
-Par H. G. Wells : L'Homme invisible[15] (1897)
+Par H. G. Wells : L'Homme invisible (1897)
 Par Vercors : Les Animaux dénaturés (1952)
 Par Paul-Jacques Bonzon : Les Six Compagnons au gouffre Marzal (1963)
 Par Peter Lovesey : La course ou la vie (Wobble to Death, 1970)
@@ -677,22 +702,124 @@
 Par Mathias Énard : Rue des voleurs (2012)
 Par Amy Lachapelle : Toxique (2013)
 Par Stephen King : Mr. Mercedes (2015)
-Par Christian White : Le mystère Sammy Went (2020)
-Dans la littérature, hors romans policiers
-Par Octave Mirbeau : Le Journal d'une femme de chambre (1900)
+Par Christian White : Le mystère Sammy Went (2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strychnine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Strychnine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Apparitions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dans la littérature, hors romans policiers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Par Octave Mirbeau : Le Journal d'une femme de chambre (1900)
 Par Jack London : Rien que de la viande, l'histoire de Jees-Uck (nouvelle, septembre 1902)
 Par Vladimir Nabokov : Un coup d'aile (1924)
 Par Alexandra David-Néel : elle l'utilise comme stimulant dans son récit Voyage d'une Parisienne à Lhassa (1927).
 Par Malcolm Lowry : Au-dessous du volcan (1947)
 Par J.M.G. Le Clézio : La Quarantaine (1995)
 Par Jocelyne Saucier : Il pleuvait des oiseaux (2011)
-Par Amy Jo Burns : Les femmes n’ont pas d’histoire (2021)
-Dans la bande dessinée
-Par Rossi/Dorison/Nury : W.E.S.T. - La chute de Babylone (T1)
+Par Amy Jo Burns : Les femmes n’ont pas d’histoire (2021)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strychnine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Strychnine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Apparitions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dans la bande dessinée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Par Rossi/Dorison/Nury : W.E.S.T. - La chute de Babylone (T1)
 Par Juan Díaz Canales et Juanjo Guarnido : Blacksad - L'enfer, le silence (T4)
-Par Jean Van Hamme et William Vance : XIII - El Cascador (T10)
-Dans la chanson
-Dans l'album Solace, le groupe canadien Ion Dissonance a une chanson nommée She's strychnine.
+Par Jean Van Hamme et William Vance : XIII - El Cascador (T10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strychnine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Strychnine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Apparitions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dans la chanson</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dans l'album Solace, le groupe canadien Ion Dissonance a une chanson nommée She's strychnine.
 Strychnine est le nom d'artiste de Gab.357 (ex-Ion Dissonance) dans le groupe de hip hop hardcore montréalais The Crimson Syndicate.
 The Sonics : Strychnine est une chanson originale du groupe garage des années 1960 (album : Here Are the Sonics), reprise plus tard par les Cramps, puis par les Fuzztones.
 Strychnine est un groupe de rock bordelais des années 1980, représentatif de la vague punk-rock français de cette époque (cf Rock à Bordeaux) ; standard du rock-garage, ce morceau a souvent été repris ou arrangé (cf Tuepogo E64).
@@ -702,9 +829,43 @@
 Dans Pulque Mescal Y Tequila de l'album Eros Über Alles, Hubert-Félix Thiéfaine « ... picole en compagnie d'un spectre imbibé de strychnine ».
 La strychnine est mentionnée dans la chanson de Hannah Fury The Necklace of Marie Antoinette.
 Strychnine.213 est le sixième album studio du groupe de Brutal death metal belge Aborted.
-An Antidote for Strychnine est une musique du groupe The Mountain Goats. Cette musique est tirée de l'album In League With Dragons paru en 2019.
-Au cinéma et à la télévision
-Dans le film Entrée des artistes (1938), la jeune Cœcilia se suicide sur scène après avoir remplacé l'eau par de la strychnine dans la fiole versée par son partenaire dans le verre que son personnage doit boire.
+An Antidote for Strychnine est une musique du groupe The Mountain Goats. Cette musique est tirée de l'album In League With Dragons paru en 2019.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strychnine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Strychnine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Apparitions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Au cinéma et à la télévision</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Dans le film Entrée des artistes (1938), la jeune Cœcilia se suicide sur scène après avoir remplacé l'eau par de la strychnine dans la fiole versée par son partenaire dans le verre que son personnage doit boire.
 Dans le film d'animation Astérix et Cléopâtre (1968), la strychnine est utilisée comme ingrédient dans la conception du gâteau pour Cléopâtre : le « pudding à l'arsenic ».
 Dans le film Arsenic et vieilles dentelles, les tantes de Mortimer Brewster tuent des vieillards avec un mélange d'arsenic, strychnine et de cyanure.
 Dans le film Barry Lyndon, Lady Lyndon tente de se suicider en ingérant de la strychnine.
@@ -725,12 +886,80 @@
 The Grand Budapest Hotel (2014) : Madame D. est retrouvée morte empoisonnée à la strychnine.
 Dans la série The Haunting of Hill House (2018), Olivia tente de tuer ses enfants en leur faisant boire de la strychnine, et plus tard Luke frôle la mort après en avoir injecté dans son bras.
 Dans la série Black Mirror, dans l'épisode interactif Bandersnatch, Colin Ritman affirme préférer fumer des cigarettes roulées à celles industrielles en raison de la présence de la molécule dans celles-ci.
-Dans la série Inspecteur Barnaby, saison 5, épisode 16, un riche industriel meurt empoisonné par cette substance cachée dans un paquet de biscuits.
-Au théâtre
-Dans la pièce Le noir te va si bien, Lady Lucy Guilvaillant secoue une bouteille de cognac en chantant la formule de la strychnine : « C21H22N2O2, c'est la formule de la strychnine, C21H22N2O2, cela vous tuerait un troupeau de bœufs. »
-Dans la pièce Le Dindon, de Georges Feydeau, Maggie Soldignac tente de se suicider et de tuer Vatelin — son amant et héros de la pièce — en mettant quelques gouttes de strychnine dans leurs tasses de thé respectives.
-Dans les jeux
-Strychnine est le nom français d'un personnage féminin de la ville de Big Town dans le jeu vidéo Fallout 3.
+Dans la série Inspecteur Barnaby, saison 5, épisode 16, un riche industriel meurt empoisonné par cette substance cachée dans un paquet de biscuits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strychnine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Strychnine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Apparitions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Au théâtre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dans la pièce Le noir te va si bien, Lady Lucy Guilvaillant secoue une bouteille de cognac en chantant la formule de la strychnine : « C21H22N2O2, c'est la formule de la strychnine, C21H22N2O2, cela vous tuerait un troupeau de bœufs. »
+Dans la pièce Le Dindon, de Georges Feydeau, Maggie Soldignac tente de se suicider et de tuer Vatelin — son amant et héros de la pièce — en mettant quelques gouttes de strychnine dans leurs tasses de thé respectives.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strychnine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Strychnine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Apparitions</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dans les jeux</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Strychnine est le nom français d'un personnage féminin de la ville de Big Town dans le jeu vidéo Fallout 3.
 La strychnine est aussi évoquée dans le jeu vidéo d'horreur Amnesia: A Machine for Pigs.
 Dans les jeux Pokémon Noir 2 et Blanc 2, la championne d'arène de type poison est Strykna, en référence aussi à la strychnine.
 Dans le jeu Danganronpa V3: Killing Harmony, il est question d'un poison nommé « strike-9 » (lu strike-nine), jeu de mots sur le nom du poison.
